--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,25 +58,34 @@
     <t>war</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -88,13 +97,19 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
@@ -106,64 +121,73 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>energy</t>
   </si>
   <si>
     <t>protect</t>
@@ -172,49 +196,49 @@
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -578,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +610,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,16 +692,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -747,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,16 +842,16 @@
         <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,16 +892,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3758389261744967</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.36</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3546511627906977</v>
+        <v>0.44</v>
       </c>
       <c r="C11">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3227513227513227</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C12">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8169014084507042</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,7 +1171,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3220338983050847</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -1165,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2857142857142857</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7446808510638298</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2023809523809524</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.74375</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L16">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,141 +1371,213 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1129032258064516</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>139</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>69</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17">
+      <c r="K18">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L18">
+        <v>46</v>
+      </c>
+      <c r="M18">
+        <v>46</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>207</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17">
-        <v>0.02</v>
-      </c>
-      <c r="F17">
-        <v>0.98</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>330</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7416666666666667</v>
-      </c>
-      <c r="L17">
-        <v>89</v>
-      </c>
-      <c r="M17">
-        <v>89</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
+      <c r="K19">
         <v>0.7254901960784313</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>37</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>37</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.1126005361930295</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>331</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
         <v>0.7169811320754716</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>76</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>76</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L20">
-        <v>63</v>
-      </c>
-      <c r="M20">
-        <v>63</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.70625</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1493,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.6449086161879896</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1519,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6388888888888888</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1545,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.5955056179775281</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1571,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.5823529411764706</v>
+        <v>0.6318537859007833</v>
       </c>
       <c r="L25">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="M25">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1597,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1623,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5389830508474577</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L27">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1649,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5116279069767442</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1680,16 +1776,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5068493150684932</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1701,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.4937238493723849</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L30">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="M30">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1727,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.475</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1753,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.4666666666666667</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1779,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.4487179487179487</v>
+        <v>0.525</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.421875</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1836,16 +1932,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1857,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.3714285714285714</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1883,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.1129807692307692</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1909,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>369</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.1076555023923445</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1935,47 +2031,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>373</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.102803738317757</v>
+        <v>0.375</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.08837209302325581</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1987,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>196</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.06375838926174497</v>
+        <v>0.3</v>
       </c>
       <c r="L41">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2013,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>837</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.05882352941176471</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L42">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2039,47 +2135,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>848</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.03697996918335902</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>625</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.03344867358708189</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2091,85 +2187,215 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>838</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.03322414599906411</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L45">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M45">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2066</v>
+        <v>833</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.01645692158760891</v>
+        <v>0.05828220858895705</v>
       </c>
       <c r="L46">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3048</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.006890072032571249</v>
+        <v>0.05327413984461709</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N47">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3171</v>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48">
+        <v>0.03697996918335902</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>25</v>
+      </c>
+      <c r="N48">
+        <v>0.96</v>
+      </c>
+      <c r="O48">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49">
+        <v>0.03596450256889304</v>
+      </c>
+      <c r="L49">
+        <v>77</v>
+      </c>
+      <c r="M49">
+        <v>79</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50">
+        <v>0.03002309468822171</v>
+      </c>
+      <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>0.96</v>
+      </c>
+      <c r="O50">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51">
+        <v>0.02128345694937117</v>
+      </c>
+      <c r="L51">
+        <v>66</v>
+      </c>
+      <c r="M51">
+        <v>72</v>
+      </c>
+      <c r="N51">
+        <v>0.92</v>
+      </c>
+      <c r="O51">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52">
+        <v>0.009073842302878598</v>
+      </c>
+      <c r="L52">
+        <v>29</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52">
+        <v>0.85</v>
+      </c>
+      <c r="O52">
+        <v>0.15</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3167</v>
       </c>
     </row>
   </sheetData>
